--- a/shaicha-manager/src/main/resources/static/upload/template/学校受检者导入模板.xlsx
+++ b/shaicha-manager/src/main/resources/static/upload/template/学校受检者导入模板.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="23025" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$2</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:J2000"/>
+  <oleSize ref="A1:J123"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>模板类型：</t>
   </si>
@@ -45,12 +48,6 @@
   </si>
   <si>
     <t>性别（男/女）</t>
-  </si>
-  <si>
-    <t>出生日期(例：2019/12/12)</t>
-  </si>
-  <si>
-    <t>学部</t>
   </si>
   <si>
     <t>年级</t>
@@ -71,9 +68,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -115,6 +112,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -122,16 +134,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,7 +157,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,90 +197,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,6 +217,43 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -267,6 +264,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -279,19 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,13 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,133 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,54 +469,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +499,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -573,16 +546,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,13 +1085,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="23.25" style="1" customWidth="1"/>
@@ -1102,10 +1099,10 @@
     <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="25.875" customWidth="1"/>
     <col min="6" max="7" width="16.375" customWidth="1"/>
-    <col min="8" max="9" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.25" customHeight="1" spans="1:9">
+    <row r="1" ht="29.25" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1126,9 +1123,8 @@
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
     </row>
-    <row r="2" ht="29.25" customHeight="1" spans="1:10">
+    <row r="2" ht="29.25" customHeight="1" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1153,20 +1149,17 @@
       <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1997">
       <formula1>"身份证,护照,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请单击单元格右侧的按钮，选择下拉列表中的选项。" sqref="D3:D1997">
       <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
+      <formula1>"幼儿园,一年级,二年级,三年级,四年级,五年级,六年级,初一,初二,初三,高一,高二,高三"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/shaicha-manager/src/main/resources/static/upload/template/学校受检者导入模板.xlsx
+++ b/shaicha-manager/src/main/resources/static/upload/template/学校受检者导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23025" windowHeight="6645"/>
+    <workbookView windowWidth="23025" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,24 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>模板类型：</t>
-  </si>
-  <si>
-    <t>学校</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>当前学校名称：</t>
   </si>
   <si>
     <t>济南市泉海中学</t>
-  </si>
-  <si>
-    <t>当前学校编码：</t>
-  </si>
-  <si>
-    <t>MS1000120</t>
   </si>
   <si>
     <t>证件类型</t>
@@ -67,10 +55,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -111,6 +99,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -119,7 +159,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,10 +180,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,68 +213,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -218,16 +220,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,21 +230,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,13 +252,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,169 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,16 +462,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,17 +511,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,49 +558,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,144 +576,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1088,7 +1073,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1109,56 +1094,49 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1997">
-      <formula1>"身份证,护照,其他"</formula1>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
+      <formula1>"幼儿园,一年级,二年级,三年级,四年级,五年级,六年级,初一,初二,初三,初四,高一,高二,高三"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请单击单元格右侧的按钮，选择下拉列表中的选项。" sqref="D3:D1997">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1997">
+      <formula1>"身份证,护照,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576">
       <formula1>"幼儿园,一年级,二年级,三年级,四年级,五年级,六年级,初一,初二,初三,高一,高二,高三"</formula1>
     </dataValidation>
   </dataValidations>

--- a/shaicha-manager/src/main/resources/static/upload/template/学校受检者导入模板.xlsx
+++ b/shaicha-manager/src/main/resources/static/upload/template/学校受检者导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23025" windowHeight="8190"/>
+    <workbookView windowWidth="24135" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,8 +55,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -99,39 +99,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,58 +145,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +158,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -212,6 +181,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -220,6 +212,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -228,16 +235,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,187 +252,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,21 +462,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -487,6 +472,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,20 +502,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,24 +526,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1127,17 +1127,15 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
       <formula1>"幼儿园,一年级,二年级,三年级,四年级,五年级,六年级,初一,初二,初三,初四,高一,高二,高三"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1997">
+      <formula1>"身份证,护照,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请单击单元格右侧的按钮，选择下拉列表中的选项。" sqref="D3:D1997">
       <formula1>"男,女"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1997">
-      <formula1>"身份证,护照,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576">
-      <formula1>"幼儿园,一年级,二年级,三年级,四年级,五年级,六年级,初一,初二,初三,高一,高二,高三"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/shaicha-manager/src/main/resources/static/upload/template/学校受检者导入模板.xlsx
+++ b/shaicha-manager/src/main/resources/static/upload/template/学校受检者导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>当前学校名称：</t>
-  </si>
-  <si>
-    <t>济南市泉海中学</t>
+    <t>筛查</t>
   </si>
   <si>
     <t>证件类型</t>
@@ -115,36 +112,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,16 +155,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,7 +218,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,46 +226,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,31 +249,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,151 +417,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,31 +459,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,6 +515,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -534,30 +555,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -567,7 +564,7 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,152 +573,161 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,69 +1079,71 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="23.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="25.875" customWidth="1"/>
-    <col min="6" max="7" width="16.375" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="C613" sheet="1" objects="1"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
-      <formula1>"幼儿园,一年级,二年级,三年级,四年级,五年级,六年级,初一,初二,初三,初四,高一,高二,高三"</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请单击单元格右侧的按钮，选择下拉列表中的选项。" sqref="D3:D1997">
+      <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1997">
       <formula1>"身份证,护照,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请单击单元格右侧的按钮，选择下拉列表中的选项。" sqref="D3:D1997">
-      <formula1>"男,女"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
+      <formula1>"幼儿园,一年级,二年级,三年级,四年级,五年级,六年级,初一,初二,初三,初四,高一,高二,高三"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/shaicha-manager/src/main/resources/static/upload/template/学校受检者导入模板.xlsx
+++ b/shaicha-manager/src/main/resources/static/upload/template/学校受检者导入模板.xlsx
@@ -52,9 +52,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -97,12 +97,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -110,38 +156,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,6 +172,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -172,7 +196,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,46 +226,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,187 +249,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,20 +473,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +492,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -515,17 +523,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,27 +555,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,137 +573,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -717,9 +717,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1079,7 +1083,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1102,45 +1106,45 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="C613" sheet="1" objects="1"/>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1997">
+      <formula1>"身份证,护照,其他"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请单击单元格右侧的按钮，选择下拉列表中的选项。" sqref="D3:D1997">
       <formula1>"男,女"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1997">
-      <formula1>"身份证,护照,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
       <formula1>"幼儿园,一年级,二年级,三年级,四年级,五年级,六年级,初一,初二,初三,初四,高一,高二,高三"</formula1>
